--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Documents\BacBase1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13DURApro" sheetId="1" r:id="rId1"/>
+    <sheet name="FxxDURApro" sheetId="2" r:id="rId2"/>
+    <sheet name="F17DURApro" sheetId="3" r:id="rId3"/>
+    <sheet name="F18DURApro" sheetId="4" r:id="rId4"/>
+    <sheet name="VergleichDURApro" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>MP1</t>
   </si>
@@ -85,12 +84,60 @@
   <si>
     <t>Urspr.Teil</t>
   </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>FxxDURApro</t>
+  </si>
+  <si>
+    <t>F17DURApro</t>
+  </si>
+  <si>
+    <t>F18DURApro</t>
+  </si>
+  <si>
+    <t>Mitt</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Fehl</t>
+  </si>
+  <si>
+    <t>Fehl ger</t>
+  </si>
+  <si>
+    <t>Mitt ger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitt ger</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Fxx</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>mitt.ger.</t>
+  </si>
+  <si>
+    <t>fehl.ger.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -207,6 +256,66 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="D5:N30" totalsRowShown="0">
+  <autoFilter ref="D5:N30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:N29" totalsRowShown="0">
+  <autoFilter ref="D4:N29"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N30" totalsRowShown="0">
+  <autoFilter ref="D5:N30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -250,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,29 +571,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1">
         <f>2.1/(SQRT(18))</f>
         <v>0.49497474683058335</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="26.25">
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
@@ -492,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -563,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -634,7 +741,7 @@
         <v>-2.83</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -705,7 +812,7 @@
         <v>-2.81</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -776,7 +883,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -847,7 +954,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -918,7 +1025,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -989,7 +1096,7 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1060,7 +1167,7 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1131,7 +1238,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1202,7 +1309,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1273,7 +1380,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1344,7 +1451,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1415,7 +1522,7 @@
         <v>-2.87</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1486,7 +1593,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1557,7 +1664,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1628,7 +1735,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1699,7 +1806,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1770,7 +1877,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1841,7 +1948,7 @@
         <v>-2.76</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +2036,7 @@
         <v>-2.7877777777777784</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +2124,7 @@
         <v>0.23378108300553715</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2169,7 @@
         <v>0.17941002168873654</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2097,7 +2204,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -2140,4 +2247,2966 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="Q2">
+        <f>2.09/SQRT(20)</f>
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.78</v>
+      </c>
+      <c r="F6">
+        <v>0.71</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>-0.19</v>
+      </c>
+      <c r="I6">
+        <v>-0.42</v>
+      </c>
+      <c r="J6">
+        <v>-0.49</v>
+      </c>
+      <c r="K6">
+        <v>-0.34</v>
+      </c>
+      <c r="L6">
+        <v>-0.61</v>
+      </c>
+      <c r="M6">
+        <v>0.49</v>
+      </c>
+      <c r="N6">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2.21</v>
+      </c>
+      <c r="F7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7">
+        <v>-0.2</v>
+      </c>
+      <c r="I7">
+        <v>-0.5</v>
+      </c>
+      <c r="J7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K7">
+        <v>-0.3</v>
+      </c>
+      <c r="L7">
+        <v>-0.77</v>
+      </c>
+      <c r="M7">
+        <v>0.21</v>
+      </c>
+      <c r="N7">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1.81</v>
+      </c>
+      <c r="F8">
+        <v>0.72</v>
+      </c>
+      <c r="G8">
+        <v>0.04</v>
+      </c>
+      <c r="H8">
+        <v>-0.19</v>
+      </c>
+      <c r="I8">
+        <v>-0.53</v>
+      </c>
+      <c r="J8">
+        <v>-0.59</v>
+      </c>
+      <c r="K8">
+        <v>-0.39</v>
+      </c>
+      <c r="L8">
+        <v>-0.63</v>
+      </c>
+      <c r="M8">
+        <v>0.46</v>
+      </c>
+      <c r="N8">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2.21</v>
+      </c>
+      <c r="F9">
+        <v>1.18</v>
+      </c>
+      <c r="G9">
+        <v>0.22</v>
+      </c>
+      <c r="H9">
+        <v>-0.23</v>
+      </c>
+      <c r="I9">
+        <v>-0.51</v>
+      </c>
+      <c r="J9">
+        <v>-0.53</v>
+      </c>
+      <c r="K9">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L9">
+        <v>-0.79</v>
+      </c>
+      <c r="M9">
+        <v>0.11</v>
+      </c>
+      <c r="N9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1.88</v>
+      </c>
+      <c r="F10">
+        <v>1.03</v>
+      </c>
+      <c r="G10">
+        <v>0.21</v>
+      </c>
+      <c r="H10">
+        <v>-0.22</v>
+      </c>
+      <c r="I10">
+        <v>-0.45</v>
+      </c>
+      <c r="J10">
+        <v>-0.46</v>
+      </c>
+      <c r="K10">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="L10">
+        <v>-0.77</v>
+      </c>
+      <c r="M10">
+        <v>0.15</v>
+      </c>
+      <c r="N10">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>2.31</v>
+      </c>
+      <c r="F11">
+        <v>0.92</v>
+      </c>
+      <c r="G11">
+        <v>0.09</v>
+      </c>
+      <c r="H11">
+        <v>-0.1</v>
+      </c>
+      <c r="I11">
+        <v>-0.39</v>
+      </c>
+      <c r="J11">
+        <v>-0.47</v>
+      </c>
+      <c r="K11">
+        <v>-0.27</v>
+      </c>
+      <c r="L11">
+        <v>-0.47</v>
+      </c>
+      <c r="M11">
+        <v>0.72</v>
+      </c>
+      <c r="N11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1.76</v>
+      </c>
+      <c r="F12">
+        <v>0.66</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+      <c r="H12">
+        <v>-0.16</v>
+      </c>
+      <c r="I12">
+        <v>-0.43</v>
+      </c>
+      <c r="J12">
+        <v>-0.51</v>
+      </c>
+      <c r="K12">
+        <v>-0.33</v>
+      </c>
+      <c r="L12">
+        <v>-0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N12">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1.79</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>-0.19</v>
+      </c>
+      <c r="I13">
+        <v>-0.44</v>
+      </c>
+      <c r="J13">
+        <v>-0.47</v>
+      </c>
+      <c r="K13">
+        <v>-0.3</v>
+      </c>
+      <c r="L13">
+        <v>-0.87</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1.85</v>
+      </c>
+      <c r="F14">
+        <v>0.7</v>
+      </c>
+      <c r="G14">
+        <v>0.06</v>
+      </c>
+      <c r="H14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>-0.35</v>
+      </c>
+      <c r="J14">
+        <v>-0.44</v>
+      </c>
+      <c r="K14">
+        <v>-0.32</v>
+      </c>
+      <c r="L14">
+        <v>-0.52</v>
+      </c>
+      <c r="M14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N14">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.27</v>
+      </c>
+      <c r="F15">
+        <v>0.51</v>
+      </c>
+      <c r="G15">
+        <v>-0.12</v>
+      </c>
+      <c r="H15">
+        <v>-0.18</v>
+      </c>
+      <c r="I15">
+        <v>-0.37</v>
+      </c>
+      <c r="J15">
+        <v>-0.47</v>
+      </c>
+      <c r="K15">
+        <v>-0.33</v>
+      </c>
+      <c r="L15">
+        <v>-0.63</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1.64</v>
+      </c>
+      <c r="F16">
+        <v>0.87</v>
+      </c>
+      <c r="G16">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>-0.19</v>
+      </c>
+      <c r="I16">
+        <v>-0.39</v>
+      </c>
+      <c r="J16">
+        <v>-0.42</v>
+      </c>
+      <c r="K16">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L16">
+        <v>-0.8</v>
+      </c>
+      <c r="M16">
+        <v>0.08</v>
+      </c>
+      <c r="N16">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1.66</v>
+      </c>
+      <c r="F17">
+        <v>0.65</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>-0.18</v>
+      </c>
+      <c r="I17">
+        <v>-0.42</v>
+      </c>
+      <c r="J17">
+        <v>-0.52</v>
+      </c>
+      <c r="K17">
+        <v>-0.36</v>
+      </c>
+      <c r="L17">
+        <v>-0.6</v>
+      </c>
+      <c r="M17">
+        <v>0.4</v>
+      </c>
+      <c r="N17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>2.15</v>
+      </c>
+      <c r="F18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.27</v>
+      </c>
+      <c r="H18">
+        <v>-0.18</v>
+      </c>
+      <c r="I18">
+        <v>-0.38</v>
+      </c>
+      <c r="J18">
+        <v>-0.41</v>
+      </c>
+      <c r="K18">
+        <v>-0.26</v>
+      </c>
+      <c r="L18">
+        <v>-0.73</v>
+      </c>
+      <c r="M18">
+        <v>0.21</v>
+      </c>
+      <c r="N18">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1.43</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>-0.04</v>
+      </c>
+      <c r="H19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-0.38</v>
+      </c>
+      <c r="J19">
+        <v>-0.45</v>
+      </c>
+      <c r="K19">
+        <v>-0.35</v>
+      </c>
+      <c r="L19">
+        <v>-0.62</v>
+      </c>
+      <c r="M19">
+        <v>0.38</v>
+      </c>
+      <c r="N19">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>2.23</v>
+      </c>
+      <c r="F20">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.44</v>
+      </c>
+      <c r="H20">
+        <v>-0.08</v>
+      </c>
+      <c r="I20">
+        <v>-0.36</v>
+      </c>
+      <c r="J20">
+        <v>-0.42</v>
+      </c>
+      <c r="K20">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="L20">
+        <v>-0.75</v>
+      </c>
+      <c r="M20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>1.64</v>
+      </c>
+      <c r="F21">
+        <v>0.63</v>
+      </c>
+      <c r="G21">
+        <v>-0.03</v>
+      </c>
+      <c r="H21">
+        <v>-0.17</v>
+      </c>
+      <c r="I21">
+        <v>-0.37</v>
+      </c>
+      <c r="J21">
+        <v>-0.44</v>
+      </c>
+      <c r="K21">
+        <v>-0.34</v>
+      </c>
+      <c r="L21">
+        <v>-0.62</v>
+      </c>
+      <c r="M21">
+        <v>0.4</v>
+      </c>
+      <c r="N21">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2.29</v>
+      </c>
+      <c r="F22">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.26</v>
+      </c>
+      <c r="H22">
+        <v>-0.19</v>
+      </c>
+      <c r="I22">
+        <v>-0.43</v>
+      </c>
+      <c r="J22">
+        <v>-0.45</v>
+      </c>
+      <c r="K22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="L22">
+        <v>-0.77</v>
+      </c>
+      <c r="M22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>2.06</v>
+      </c>
+      <c r="F23">
+        <v>0.8</v>
+      </c>
+      <c r="G23">
+        <v>0.05</v>
+      </c>
+      <c r="H23">
+        <v>-0.18</v>
+      </c>
+      <c r="I23">
+        <v>-0.44</v>
+      </c>
+      <c r="J23">
+        <v>-0.5</v>
+      </c>
+      <c r="K23">
+        <v>-0.31</v>
+      </c>
+      <c r="L23">
+        <v>-0.52</v>
+      </c>
+      <c r="M23">
+        <v>0.61</v>
+      </c>
+      <c r="N23">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>1.64</v>
+      </c>
+      <c r="F24">
+        <v>0.61</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-0.2</v>
+      </c>
+      <c r="I24">
+        <v>-0.46</v>
+      </c>
+      <c r="J24">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K24">
+        <v>-0.36</v>
+      </c>
+      <c r="L24">
+        <v>-0.52</v>
+      </c>
+      <c r="M24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N24">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2.36</v>
+      </c>
+      <c r="F25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.27</v>
+      </c>
+      <c r="H25">
+        <v>-0.2</v>
+      </c>
+      <c r="I25">
+        <v>-0.47</v>
+      </c>
+      <c r="J25">
+        <v>-0.52</v>
+      </c>
+      <c r="K25">
+        <v>-0.3</v>
+      </c>
+      <c r="L25">
+        <v>-0.27</v>
+      </c>
+      <c r="M25">
+        <v>0.2</v>
+      </c>
+      <c r="N25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5">
+        <f>SUBTOTAL(101,E6:E25)</f>
+        <v>1.8984999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:N26" si="0">SUBTOTAL(101,F6:F25)</f>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12099999999999997</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.17550000000000004</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.4245000000000001</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.31399999999999995</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.63799999999999979</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5010000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="D27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5">
+        <f>STDEV(E6:E25)</f>
+        <v>0.31256620351366904</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:N27" si="1">STDEV(F6:F25)</f>
+        <v>0.23686327390778794</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14230804245498013</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>3.663116303454135E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>5.1654214685122581E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>5.1031466041216972E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5003759196617301E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14580448336186852</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20884330565232276</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22571290567770635</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E27*$A$1</f>
+        <v>0.1460741292118499</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:N28" si="2">F27*$A$1</f>
+        <v>0.11069525780267191</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>6.6505985444920673E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7119142063783392E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4139988090303113E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3848953855463345E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6358594071618968E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>6.8140005870267389E-2</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>9.7600456069631178E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10548426470331906</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14">
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H30" s="5">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-0.314</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-0.64</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2.84</v>
+      </c>
+      <c r="F5">
+        <v>1.07</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>-0.18</v>
+      </c>
+      <c r="I5">
+        <v>-0.48</v>
+      </c>
+      <c r="J5">
+        <v>-0.54</v>
+      </c>
+      <c r="K5">
+        <v>-0.37</v>
+      </c>
+      <c r="L5">
+        <v>-0.41</v>
+      </c>
+      <c r="M5">
+        <v>0.86</v>
+      </c>
+      <c r="N5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2.58</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.12</v>
+      </c>
+      <c r="H6">
+        <v>-0.24</v>
+      </c>
+      <c r="I6">
+        <v>-0.53</v>
+      </c>
+      <c r="J6">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K6">
+        <v>-0.38</v>
+      </c>
+      <c r="L6">
+        <v>-0.42</v>
+      </c>
+      <c r="M6">
+        <v>0.88</v>
+      </c>
+      <c r="N6">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2.74</v>
+      </c>
+      <c r="F7">
+        <v>1.32</v>
+      </c>
+      <c r="G7">
+        <v>0.33</v>
+      </c>
+      <c r="H7">
+        <v>-0.2</v>
+      </c>
+      <c r="I7">
+        <v>-0.39</v>
+      </c>
+      <c r="J7">
+        <v>-0.32</v>
+      </c>
+      <c r="K7">
+        <v>-0.01</v>
+      </c>
+      <c r="L7">
+        <v>-0.34</v>
+      </c>
+      <c r="M7">
+        <v>0.63</v>
+      </c>
+      <c r="N7">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2.56</v>
+      </c>
+      <c r="F8">
+        <v>1.03</v>
+      </c>
+      <c r="G8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.21</v>
+      </c>
+      <c r="I8">
+        <v>-0.46</v>
+      </c>
+      <c r="J8">
+        <v>-0.52</v>
+      </c>
+      <c r="K8">
+        <v>-0.37</v>
+      </c>
+      <c r="L8">
+        <v>-0.47</v>
+      </c>
+      <c r="M8">
+        <v>0.67</v>
+      </c>
+      <c r="N8">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2.66</v>
+      </c>
+      <c r="F9">
+        <v>1.28</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>-0.26</v>
+      </c>
+      <c r="I9">
+        <v>-0.53</v>
+      </c>
+      <c r="J9">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K9">
+        <v>-0.36</v>
+      </c>
+      <c r="L9">
+        <v>-0.71</v>
+      </c>
+      <c r="M9">
+        <v>0.36</v>
+      </c>
+      <c r="N9">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2.87</v>
+      </c>
+      <c r="F10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10">
+        <v>-0.25</v>
+      </c>
+      <c r="I10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J10">
+        <v>-0.61</v>
+      </c>
+      <c r="K10">
+        <v>-0.37</v>
+      </c>
+      <c r="L10">
+        <v>-0.35</v>
+      </c>
+      <c r="M10">
+        <v>0.97</v>
+      </c>
+      <c r="N10">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>2.99</v>
+      </c>
+      <c r="F11">
+        <v>1.34</v>
+      </c>
+      <c r="G11">
+        <v>0.37</v>
+      </c>
+      <c r="H11">
+        <v>-0.21</v>
+      </c>
+      <c r="I11">
+        <v>-0.49</v>
+      </c>
+      <c r="J11">
+        <v>-0.49</v>
+      </c>
+      <c r="K11">
+        <v>-0.21</v>
+      </c>
+      <c r="L11">
+        <v>-0.53</v>
+      </c>
+      <c r="M11">
+        <v>0.51</v>
+      </c>
+      <c r="N11">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2.44</v>
+      </c>
+      <c r="F12">
+        <v>0.84</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>-0.22</v>
+      </c>
+      <c r="I12">
+        <v>-0.53</v>
+      </c>
+      <c r="J12">
+        <v>-0.6</v>
+      </c>
+      <c r="K12">
+        <v>-0.4</v>
+      </c>
+      <c r="L12">
+        <v>-0.47</v>
+      </c>
+      <c r="M12">
+        <v>0.69</v>
+      </c>
+      <c r="N12">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2.96</v>
+      </c>
+      <c r="F13">
+        <v>1.35</v>
+      </c>
+      <c r="G13">
+        <v>0.96</v>
+      </c>
+      <c r="H13">
+        <v>-0.25</v>
+      </c>
+      <c r="I13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J13">
+        <v>0.18</v>
+      </c>
+      <c r="K13">
+        <v>0.54</v>
+      </c>
+      <c r="L13">
+        <v>0.45</v>
+      </c>
+      <c r="M13">
+        <v>1.35</v>
+      </c>
+      <c r="N13">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2.56</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.18</v>
+      </c>
+      <c r="H14">
+        <v>-0.24</v>
+      </c>
+      <c r="I14">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J14">
+        <v>-0.6</v>
+      </c>
+      <c r="K14">
+        <v>-0.37</v>
+      </c>
+      <c r="L14">
+        <v>-0.47</v>
+      </c>
+      <c r="M14">
+        <v>0.71</v>
+      </c>
+      <c r="N14">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2.83</v>
+      </c>
+      <c r="F15">
+        <v>1.33</v>
+      </c>
+      <c r="G15">
+        <v>0.31</v>
+      </c>
+      <c r="H15">
+        <v>-0.27</v>
+      </c>
+      <c r="I15">
+        <v>-0.52</v>
+      </c>
+      <c r="J15">
+        <v>-0.44</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>-0.08</v>
+      </c>
+      <c r="M15">
+        <v>0.79</v>
+      </c>
+      <c r="N15">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2.63</v>
+      </c>
+      <c r="F16">
+        <v>0.97</v>
+      </c>
+      <c r="G16">
+        <v>0.18</v>
+      </c>
+      <c r="H16">
+        <v>-0.23</v>
+      </c>
+      <c r="I16">
+        <v>-0.45</v>
+      </c>
+      <c r="J16">
+        <v>-0.51</v>
+      </c>
+      <c r="K16">
+        <v>-0.34</v>
+      </c>
+      <c r="L16">
+        <v>-0.36</v>
+      </c>
+      <c r="M16">
+        <v>0.91</v>
+      </c>
+      <c r="N16">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>2.66</v>
+      </c>
+      <c r="F17">
+        <v>1.36</v>
+      </c>
+      <c r="G17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H17">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>-0.47</v>
+      </c>
+      <c r="J17">
+        <v>-0.35</v>
+      </c>
+      <c r="K17">
+        <v>-0.1</v>
+      </c>
+      <c r="L17">
+        <v>-0.6</v>
+      </c>
+      <c r="M17">
+        <v>0.32</v>
+      </c>
+      <c r="N17">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>2.63</v>
+      </c>
+      <c r="F18">
+        <v>1.07</v>
+      </c>
+      <c r="G18">
+        <v>0.41</v>
+      </c>
+      <c r="H18">
+        <v>-0.13</v>
+      </c>
+      <c r="I18">
+        <v>-0.45</v>
+      </c>
+      <c r="J18">
+        <v>-0.5</v>
+      </c>
+      <c r="K18">
+        <v>-0.36</v>
+      </c>
+      <c r="L18">
+        <v>-0.41</v>
+      </c>
+      <c r="M18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N18">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2.77</v>
+      </c>
+      <c r="F19">
+        <v>1.43</v>
+      </c>
+      <c r="G19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H19">
+        <v>-0.22</v>
+      </c>
+      <c r="I19">
+        <v>-0.62</v>
+      </c>
+      <c r="J19">
+        <v>-0.61</v>
+      </c>
+      <c r="K19">
+        <v>-0.34</v>
+      </c>
+      <c r="L19">
+        <v>-0.61</v>
+      </c>
+      <c r="M19">
+        <v>0.63</v>
+      </c>
+      <c r="N19">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>2.74</v>
+      </c>
+      <c r="F20">
+        <v>1.01</v>
+      </c>
+      <c r="G20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H20">
+        <v>-0.04</v>
+      </c>
+      <c r="I20">
+        <v>-0.53</v>
+      </c>
+      <c r="J20">
+        <v>-0.62</v>
+      </c>
+      <c r="K20">
+        <v>-0.34</v>
+      </c>
+      <c r="L20">
+        <v>-0.45</v>
+      </c>
+      <c r="M20">
+        <v>0.84</v>
+      </c>
+      <c r="N20">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2.77</v>
+      </c>
+      <c r="F21">
+        <v>1.33</v>
+      </c>
+      <c r="G21">
+        <v>0.52</v>
+      </c>
+      <c r="H21">
+        <v>-0.05</v>
+      </c>
+      <c r="I21">
+        <v>-0.3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.48</v>
+      </c>
+      <c r="L21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.08</v>
+      </c>
+      <c r="N21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>2.72</v>
+      </c>
+      <c r="F22">
+        <v>1.03</v>
+      </c>
+      <c r="G22">
+        <v>0.31</v>
+      </c>
+      <c r="H22">
+        <v>-0.1</v>
+      </c>
+      <c r="I22">
+        <v>-0.52</v>
+      </c>
+      <c r="J22">
+        <v>-0.43</v>
+      </c>
+      <c r="K22">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L22">
+        <v>-0.48</v>
+      </c>
+      <c r="M22">
+        <v>0.84</v>
+      </c>
+      <c r="N22">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>2.59</v>
+      </c>
+      <c r="F23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.26</v>
+      </c>
+      <c r="H23">
+        <v>-0.12</v>
+      </c>
+      <c r="I23">
+        <v>-0.23</v>
+      </c>
+      <c r="J23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.35</v>
+      </c>
+      <c r="L23">
+        <v>0.16</v>
+      </c>
+      <c r="M23">
+        <v>0.98</v>
+      </c>
+      <c r="N23">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2.88</v>
+      </c>
+      <c r="F24">
+        <v>1.33</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>-0.25</v>
+      </c>
+      <c r="I24">
+        <v>-0.44</v>
+      </c>
+      <c r="J24">
+        <v>-0.4</v>
+      </c>
+      <c r="K24">
+        <v>-0.05</v>
+      </c>
+      <c r="L24">
+        <v>-0.32</v>
+      </c>
+      <c r="M24">
+        <v>0.59</v>
+      </c>
+      <c r="N24">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5">
+        <f>SUBTOTAL(101,E5:E24)</f>
+        <v>2.721000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:N25" si="0">SUBTOTAL(101,F5:F24)</f>
+        <v>1.1675</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.1905</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.438</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.42800000000000005</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.16449999999999995</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78850000000000009</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6580000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5">
+        <f>STDEV(E5:E24)</f>
+        <v>0.14516415390494672</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:N26" si="1">STDEV(F5:F24)</f>
+        <v>0.17347455448171917</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20160605149647659</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>6.9847578415620934E-2</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19313480429891194</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22203840350619294</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29930577570174127</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28310310563653773</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25563697533395813</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34332123978018891</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="D27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5">
+        <f>E26*$A$1</f>
+        <v>6.7840755449789791E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:N27" si="2">F26*$A$1</f>
+        <v>8.1071287303211503E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
+        <v>9.4218210686681972E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2642442080824771E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0259273207798502E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10376702944577339</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13987702465022622</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13230489786852187</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11946892577151597</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16044713272601352</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="H29" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.44</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.43</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-0.16</v>
+      </c>
+      <c r="L29" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N29" s="5">
+        <v>2.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4.7</v>
+      </c>
+      <c r="F6">
+        <v>1.27</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>-0.08</v>
+      </c>
+      <c r="I6">
+        <v>-0.31</v>
+      </c>
+      <c r="J6">
+        <v>-0.31</v>
+      </c>
+      <c r="K6">
+        <v>-0.19</v>
+      </c>
+      <c r="L6">
+        <v>-0.25</v>
+      </c>
+      <c r="M6">
+        <v>1.3</v>
+      </c>
+      <c r="N6">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
+      </c>
+      <c r="G7">
+        <v>0.27</v>
+      </c>
+      <c r="H7">
+        <v>-0.21</v>
+      </c>
+      <c r="I7">
+        <v>-0.47</v>
+      </c>
+      <c r="J7">
+        <v>-0.46</v>
+      </c>
+      <c r="K7">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L7">
+        <v>-0.22</v>
+      </c>
+      <c r="M7">
+        <v>1.38</v>
+      </c>
+      <c r="N7">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4.3</v>
+      </c>
+      <c r="F8">
+        <v>1.58</v>
+      </c>
+      <c r="G8">
+        <v>0.41</v>
+      </c>
+      <c r="H8">
+        <v>-0.24</v>
+      </c>
+      <c r="I8">
+        <v>-0.44</v>
+      </c>
+      <c r="J8">
+        <v>-0.4</v>
+      </c>
+      <c r="K8">
+        <v>-0.21</v>
+      </c>
+      <c r="L8">
+        <v>-0.49</v>
+      </c>
+      <c r="M8">
+        <v>0.84</v>
+      </c>
+      <c r="N8">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4.37</v>
+      </c>
+      <c r="F9">
+        <v>1.36</v>
+      </c>
+      <c r="G9">
+        <v>0.39</v>
+      </c>
+      <c r="H9">
+        <v>-0.16</v>
+      </c>
+      <c r="I9">
+        <v>-0.47</v>
+      </c>
+      <c r="J9">
+        <v>-0.47</v>
+      </c>
+      <c r="K9">
+        <v>-0.25</v>
+      </c>
+      <c r="L9">
+        <v>-0.12</v>
+      </c>
+      <c r="M9">
+        <v>1.42</v>
+      </c>
+      <c r="N9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4.45</v>
+      </c>
+      <c r="F10">
+        <v>1.36</v>
+      </c>
+      <c r="G10">
+        <v>0.33</v>
+      </c>
+      <c r="H10">
+        <v>-0.17</v>
+      </c>
+      <c r="I10">
+        <v>-0.5</v>
+      </c>
+      <c r="J10">
+        <v>-0.51</v>
+      </c>
+      <c r="K10">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L10">
+        <v>-0.15</v>
+      </c>
+      <c r="M10">
+        <v>1.53</v>
+      </c>
+      <c r="N10">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F11">
+        <v>1.47</v>
+      </c>
+      <c r="G11">
+        <v>0.39</v>
+      </c>
+      <c r="H11">
+        <v>-0.09</v>
+      </c>
+      <c r="I11">
+        <v>-0.13</v>
+      </c>
+      <c r="J11">
+        <v>0.04</v>
+      </c>
+      <c r="K11">
+        <v>0.27</v>
+      </c>
+      <c r="L11">
+        <v>0.04</v>
+      </c>
+      <c r="M11">
+        <v>1.2</v>
+      </c>
+      <c r="N11">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4.38</v>
+      </c>
+      <c r="F12">
+        <v>1.37</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>-0.18</v>
+      </c>
+      <c r="I12">
+        <v>-0.46</v>
+      </c>
+      <c r="J12">
+        <v>-0.43</v>
+      </c>
+      <c r="K12">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L12">
+        <v>-0.26</v>
+      </c>
+      <c r="M12">
+        <v>1.27</v>
+      </c>
+      <c r="N12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>4.28</v>
+      </c>
+      <c r="F13">
+        <v>1.54</v>
+      </c>
+      <c r="G13">
+        <v>0.38</v>
+      </c>
+      <c r="H13">
+        <v>-0.26</v>
+      </c>
+      <c r="I13">
+        <v>-0.48</v>
+      </c>
+      <c r="J13">
+        <v>-0.43</v>
+      </c>
+      <c r="K13">
+        <v>-0.25</v>
+      </c>
+      <c r="L13">
+        <v>-0.59</v>
+      </c>
+      <c r="M13">
+        <v>0.72</v>
+      </c>
+      <c r="N13">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>4.71</v>
+      </c>
+      <c r="F14">
+        <v>1.47</v>
+      </c>
+      <c r="G14">
+        <v>0.34</v>
+      </c>
+      <c r="H14">
+        <v>-0.16</v>
+      </c>
+      <c r="I14">
+        <v>-0.45</v>
+      </c>
+      <c r="J14">
+        <v>-0.47</v>
+      </c>
+      <c r="K14">
+        <v>-0.25</v>
+      </c>
+      <c r="L14">
+        <v>-0.04</v>
+      </c>
+      <c r="M14">
+        <v>1.69</v>
+      </c>
+      <c r="N14">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4.29</v>
+      </c>
+      <c r="F15">
+        <v>1.46</v>
+      </c>
+      <c r="G15">
+        <v>0.34</v>
+      </c>
+      <c r="H15">
+        <v>-0.21</v>
+      </c>
+      <c r="I15">
+        <v>-0.38</v>
+      </c>
+      <c r="J15">
+        <v>-0.32</v>
+      </c>
+      <c r="K15">
+        <v>-0.2</v>
+      </c>
+      <c r="L15">
+        <v>-0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.8</v>
+      </c>
+      <c r="N15">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>4.46</v>
+      </c>
+      <c r="F16">
+        <v>1.6</v>
+      </c>
+      <c r="G16">
+        <v>0.41</v>
+      </c>
+      <c r="H16">
+        <v>-0.21</v>
+      </c>
+      <c r="I16">
+        <v>-0.44</v>
+      </c>
+      <c r="J16">
+        <v>-0.41</v>
+      </c>
+      <c r="K16">
+        <v>-0.26</v>
+      </c>
+      <c r="L16">
+        <v>-0.51</v>
+      </c>
+      <c r="M16">
+        <v>0.91</v>
+      </c>
+      <c r="N16">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>4.66</v>
+      </c>
+      <c r="F17">
+        <v>1.44</v>
+      </c>
+      <c r="G17">
+        <v>0.31</v>
+      </c>
+      <c r="H17">
+        <v>-0.19</v>
+      </c>
+      <c r="I17">
+        <v>-0.51</v>
+      </c>
+      <c r="J17">
+        <v>-0.54</v>
+      </c>
+      <c r="K17">
+        <v>-0.31</v>
+      </c>
+      <c r="L17">
+        <v>-0.24</v>
+      </c>
+      <c r="M17">
+        <v>1.44</v>
+      </c>
+      <c r="N17">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F18">
+        <v>1.6</v>
+      </c>
+      <c r="G18">
+        <v>0.39</v>
+      </c>
+      <c r="H18">
+        <v>-0.24</v>
+      </c>
+      <c r="I18">
+        <v>-0.46</v>
+      </c>
+      <c r="J18">
+        <v>-0.43</v>
+      </c>
+      <c r="K18">
+        <v>-0.25</v>
+      </c>
+      <c r="L18">
+        <v>-0.52</v>
+      </c>
+      <c r="M18">
+        <v>0.91</v>
+      </c>
+      <c r="N18">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F19">
+        <v>1.33</v>
+      </c>
+      <c r="G19">
+        <v>0.27</v>
+      </c>
+      <c r="H19">
+        <v>-0.17</v>
+      </c>
+      <c r="I19">
+        <v>-0.41</v>
+      </c>
+      <c r="J19">
+        <v>-0.44</v>
+      </c>
+      <c r="K19">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L19">
+        <v>-0.17</v>
+      </c>
+      <c r="M19">
+        <v>1.49</v>
+      </c>
+      <c r="N19">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>4.62</v>
+      </c>
+      <c r="F20">
+        <v>1.34</v>
+      </c>
+      <c r="G20">
+        <v>0.27</v>
+      </c>
+      <c r="H20">
+        <v>-0.21</v>
+      </c>
+      <c r="I20">
+        <v>-0.5</v>
+      </c>
+      <c r="J20">
+        <v>-0.49</v>
+      </c>
+      <c r="K20">
+        <v>-0.31</v>
+      </c>
+      <c r="L20">
+        <v>-0.19</v>
+      </c>
+      <c r="M20">
+        <v>1.51</v>
+      </c>
+      <c r="N20">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>4.34</v>
+      </c>
+      <c r="F21">
+        <v>1.57</v>
+      </c>
+      <c r="G21">
+        <v>0.47</v>
+      </c>
+      <c r="H21">
+        <v>-0.24</v>
+      </c>
+      <c r="I21">
+        <v>-0.5</v>
+      </c>
+      <c r="J21">
+        <v>-0.46</v>
+      </c>
+      <c r="K21">
+        <v>-0.24</v>
+      </c>
+      <c r="L21">
+        <v>-0.51</v>
+      </c>
+      <c r="M21">
+        <v>0.81</v>
+      </c>
+      <c r="N21">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>4.71</v>
+      </c>
+      <c r="F22">
+        <v>1.38</v>
+      </c>
+      <c r="G22">
+        <v>0.31</v>
+      </c>
+      <c r="H22">
+        <v>-0.2</v>
+      </c>
+      <c r="I22">
+        <v>-0.48</v>
+      </c>
+      <c r="J22">
+        <v>-0.47</v>
+      </c>
+      <c r="K22">
+        <v>-0.3</v>
+      </c>
+      <c r="L22">
+        <v>-0.23</v>
+      </c>
+      <c r="M22">
+        <v>1.38</v>
+      </c>
+      <c r="N22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>4.26</v>
+      </c>
+      <c r="F23">
+        <v>1.57</v>
+      </c>
+      <c r="G23">
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>-0.26</v>
+      </c>
+      <c r="I23">
+        <v>-0.49</v>
+      </c>
+      <c r="J23">
+        <v>-0.44</v>
+      </c>
+      <c r="K23">
+        <v>-0.26</v>
+      </c>
+      <c r="L23">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="M23">
+        <v>0.54</v>
+      </c>
+      <c r="N23">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>4.57</v>
+      </c>
+      <c r="F24">
+        <v>1.37</v>
+      </c>
+      <c r="G24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H24">
+        <v>-0.19</v>
+      </c>
+      <c r="I24">
+        <v>-0.51</v>
+      </c>
+      <c r="J24">
+        <v>-0.47</v>
+      </c>
+      <c r="K24">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L24">
+        <v>-0.22</v>
+      </c>
+      <c r="M24">
+        <v>1.45</v>
+      </c>
+      <c r="N24">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>4.25</v>
+      </c>
+      <c r="F25">
+        <v>1.59</v>
+      </c>
+      <c r="G25">
+        <v>0.42</v>
+      </c>
+      <c r="H25">
+        <v>-0.25</v>
+      </c>
+      <c r="I25">
+        <v>-0.44</v>
+      </c>
+      <c r="J25">
+        <v>-0.36</v>
+      </c>
+      <c r="K25">
+        <v>-0.25</v>
+      </c>
+      <c r="L25">
+        <v>-0.63</v>
+      </c>
+      <c r="M25">
+        <v>0.65</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5">
+        <f>SUBTOTAL(101,E6:E25)</f>
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:N26" si="0">SUBTOTAL(101,F6:F25)</f>
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.34699999999999992</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.4415</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.41349999999999998</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.23549999999999999</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.31800000000000006</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1619999999999997</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>4.174500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="D27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5">
+        <f>STDEV(E6:E25)</f>
+        <v>0.18470745005350522</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:N27" si="1">STDEV(F6:F25)</f>
+        <v>0.11113173785150353</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2247384218979927E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9566542195952655E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7796115487741494E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12110347902343239</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12394714493219325</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19991050629298041</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34995638826032421</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47144207658940995</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E27*$A$1</f>
+        <v>8.6320848582489521E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:N28" si="2">F27*$A$1</f>
+        <v>5.1936107141372492E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9090580949854034E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3164338971790221E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>4.103047921972152E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6596282784295966E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
+        <v>5.7925236512249151E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>9.3425817630888267E-2</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1635479911218724</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22032289491788482</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="4:14">
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:13">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="F13DURApro" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,6 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -214,6 +218,1048 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8112311432769019E-2"/>
+          <c:y val="4.7297843434939153E-2"/>
+          <c:w val="0.7603623132014159"/>
+          <c:h val="0.91272071502903152"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$9:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$9:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0000000000000007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.0000000000000007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0000000000000007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.0000000000000007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$11:$M$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$11:$M$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$12:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$12:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="56623104"/>
+        <c:axId val="56626560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56623104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messwerte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39610822123346617"/>
+              <c:y val="0.86756211782889414"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56626560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56626560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56623104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30525561693129272"/>
+          <c:y val="9.9227460692671993E-2"/>
+          <c:w val="0.33985618354542596"/>
+          <c:h val="0.13085780830991781"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,7 +1627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -2253,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3228,7 +4276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:N28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -4194,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5084,31 +6134,71 @@
       <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="E29" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="30" spans="4:14">
       <c r="D30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="E30" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H30" s="5">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-0.44</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-0.41</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-0.24</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-0.32</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4.17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5122,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5167,21 +6257,141 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5">
+        <v>0.87</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>-0.113</v>
+      </c>
+      <c r="H5">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="I5">
+        <v>-0.28699999999999998</v>
+      </c>
+      <c r="J5">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="K5">
+        <v>-0.91</v>
+      </c>
+      <c r="L5">
+        <v>0.02</v>
+      </c>
+      <c r="M5">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="6" spans="2:13">
       <c r="C6" t="s">
         <v>31</v>
       </c>
+      <c r="D6">
+        <v>1.9</v>
+      </c>
+      <c r="E6">
+        <v>0.86</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="H6">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="J6">
+        <v>-0.314</v>
+      </c>
+      <c r="K6">
+        <v>-0.64</v>
+      </c>
+      <c r="L6">
+        <v>0.34</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" t="s">
         <v>32</v>
       </c>
+      <c r="D7">
+        <v>2.72</v>
+      </c>
+      <c r="E7">
+        <v>1.17</v>
+      </c>
+      <c r="F7">
+        <v>0.33</v>
+      </c>
+      <c r="G7">
+        <v>-0.19</v>
+      </c>
+      <c r="H7">
+        <v>-0.44</v>
+      </c>
+      <c r="I7">
+        <v>-0.43</v>
+      </c>
+      <c r="J7">
+        <v>-0.16</v>
+      </c>
+      <c r="K7">
+        <v>-0.34</v>
+      </c>
+      <c r="L7">
+        <v>0.79</v>
+      </c>
+      <c r="M7">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="8" spans="2:13">
       <c r="C8" t="s">
         <v>33</v>
       </c>
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+      <c r="E8">
+        <v>1.45</v>
+      </c>
+      <c r="F8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G8">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.44</v>
+      </c>
+      <c r="I8">
+        <v>-0.41</v>
+      </c>
+      <c r="J8">
+        <v>-0.24</v>
+      </c>
+      <c r="K8">
+        <v>-0.32</v>
+      </c>
+      <c r="L8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M8">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -5190,23 +6400,144 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
+      <c r="D9">
+        <v>0.18</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>0.09</v>
+      </c>
+      <c r="G9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.09</v>
+      </c>
+      <c r="L9">
+        <v>0.16</v>
+      </c>
+      <c r="M9">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
       <c r="C10" t="s">
         <v>31</v>
       </c>
+      <c r="D10">
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+      <c r="F10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
       <c r="C11" t="s">
         <v>32</v>
       </c>
+      <c r="D11">
+        <v>0.08</v>
+      </c>
+      <c r="E11">
+        <v>0.09</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.04</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>0.11</v>
+      </c>
+      <c r="J11">
+        <v>0.15</v>
+      </c>
+      <c r="K11">
+        <v>0.15</v>
+      </c>
+      <c r="L11">
+        <v>0.13</v>
+      </c>
+      <c r="M11">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="C12" t="s">
         <v>33</v>
       </c>
+      <c r="D12">
+        <v>0.09</v>
+      </c>
+      <c r="E12">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <v>0.03</v>
+      </c>
+      <c r="G12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.06</v>
+      </c>
+      <c r="J12">
+        <v>0.06</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <v>0.17</v>
+      </c>
+      <c r="M12">
+        <v>0.23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -12,6 +12,7 @@
     <sheet name="F17DURApro" sheetId="3" r:id="rId3"/>
     <sheet name="F18DURApro" sheetId="4" r:id="rId4"/>
     <sheet name="VergleichDURApro" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
   <si>
     <t>MP1</t>
   </si>
@@ -132,6 +133,36 @@
   <si>
     <t>fehl.ger.</t>
   </si>
+  <si>
+    <t>ProzezzDiff</t>
+  </si>
+  <si>
+    <t>Mater.</t>
+  </si>
+  <si>
+    <t>fräs</t>
+  </si>
+  <si>
+    <t>polier</t>
+  </si>
+  <si>
+    <t>verz</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>auss</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>MittVerz</t>
+  </si>
 </sst>
 </file>
 
@@ -230,10 +261,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8112311432769019E-2"/>
+          <c:x val="7.8112311432769033E-2"/>
           <c:y val="4.7297843434939153E-2"/>
           <c:w val="0.7603623132014159"/>
-          <c:h val="0.91272071502903152"/>
+          <c:h val="0.91272071502903163"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1071,11 +1102,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56623104"/>
-        <c:axId val="56626560"/>
+        <c:axId val="59628160"/>
+        <c:axId val="59634432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56623104"/>
+        <c:axId val="59628160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1126,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Messwerte</a:t>
+                  <a:t>Messpunkte</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1104,7 +1135,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39610822123346617"/>
+              <c:x val="0.3961082212334664"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1122,14 +1153,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56626560"/>
+        <c:crossAx val="59634432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56626560"/>
+        <c:axId val="59634432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1201,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56623104"/>
+        <c:crossAx val="59628160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1199,9 +1230,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692671993E-2"/>
-          <c:w val="0.33985618354542596"/>
-          <c:h val="0.13085780830991781"/>
+          <c:y val="9.9227460692672076E-2"/>
+          <c:w val="0.33985618354542618"/>
+          <c:h val="0.13085780830991775"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1221,7 +1252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6540,4 +6571,661 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D5:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="4:15">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0.13</v>
+      </c>
+      <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>-0.12</v>
+      </c>
+      <c r="I6">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="J6">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="K6">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="L6">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="M6">
+        <v>-1.06</v>
+      </c>
+      <c r="N6">
+        <v>-0.38</v>
+      </c>
+      <c r="O6">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15">
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+      <c r="H7">
+        <v>-0.05</v>
+      </c>
+      <c r="I7">
+        <v>-0.08</v>
+      </c>
+      <c r="J7">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="L7">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="M7">
+        <v>-0.97</v>
+      </c>
+      <c r="N7">
+        <v>-0.03</v>
+      </c>
+      <c r="O7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.13</v>
+      </c>
+      <c r="H8">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I8">
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="M8">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.35</v>
+      </c>
+      <c r="O8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>0.15920000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>1.27</v>
+      </c>
+      <c r="G11">
+        <v>0.62</v>
+      </c>
+      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="J11">
+        <v>-0.34</v>
+      </c>
+      <c r="K11">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="L11">
+        <v>-0.251</v>
+      </c>
+      <c r="M11">
+        <v>-0.84</v>
+      </c>
+      <c r="N11">
+        <v>-0.01</v>
+      </c>
+      <c r="O11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>1.67</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.13</v>
+      </c>
+      <c r="I12">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="J12">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="K12">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="L12">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="M12">
+        <v>-0.66</v>
+      </c>
+      <c r="N12">
+        <v>0.22</v>
+      </c>
+      <c r="O12">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G13">
+        <v>0.52</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J13">
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="K13">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="N13">
+        <v>0.23</v>
+      </c>
+      <c r="O13">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>2.54</v>
+      </c>
+      <c r="G16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.31</v>
+      </c>
+      <c r="I16">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="J16">
+        <v>-0.439</v>
+      </c>
+      <c r="K16">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="L16">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="M16">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.46</v>
+      </c>
+      <c r="O16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>2.59</v>
+      </c>
+      <c r="G17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.26</v>
+      </c>
+      <c r="I17">
+        <v>-0.114</v>
+      </c>
+      <c r="J17">
+        <v>-0.42</v>
+      </c>
+      <c r="K17">
+        <v>-0.44</v>
+      </c>
+      <c r="L17">
+        <v>-0.23</v>
+      </c>
+      <c r="M17">
+        <v>-0.42</v>
+      </c>
+      <c r="N17">
+        <v>0.7</v>
+      </c>
+      <c r="O17">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="G18">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.9000000000000017E-2</v>
+      </c>
+      <c r="K18">
+        <v>4.0999999999999981E-2</v>
+      </c>
+      <c r="L18">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M18">
+        <v>0.14000000000000007</v>
+      </c>
+      <c r="N18">
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="O18">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>0.10759999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>4.33</v>
+      </c>
+      <c r="G21">
+        <v>1.49</v>
+      </c>
+      <c r="H21">
+        <v>0.45</v>
+      </c>
+      <c r="I21">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="J21">
+        <v>-0.37</v>
+      </c>
+      <c r="K21">
+        <v>-0.35</v>
+      </c>
+      <c r="L21">
+        <v>-0.151</v>
+      </c>
+      <c r="M21">
+        <v>-0.31</v>
+      </c>
+      <c r="N21">
+        <v>1.08</v>
+      </c>
+      <c r="O21">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>3.44</v>
+      </c>
+      <c r="G22">
+        <v>1.34</v>
+      </c>
+      <c r="H22">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I22">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="J22">
+        <v>-0.3</v>
+      </c>
+      <c r="K22">
+        <v>-0.26</v>
+      </c>
+      <c r="L22">
+        <v>-0.01</v>
+      </c>
+      <c r="M22">
+        <v>-0.2</v>
+      </c>
+      <c r="N22">
+        <v>1.21</v>
+      </c>
+      <c r="O22">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="G23">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H23">
+        <v>9.8000000000000032E-2</v>
+      </c>
+      <c r="I23">
+        <v>4.9999999999999906E-3</v>
+      </c>
+      <c r="J23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O23">
+        <v>0.10999999999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>0.17939999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -12,7 +12,7 @@
     <sheet name="F17DURApro" sheetId="3" r:id="rId3"/>
     <sheet name="F18DURApro" sheetId="4" r:id="rId4"/>
     <sheet name="VergleichDURApro" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId6"/>
+    <sheet name="verzug und stanabw." sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
   <si>
     <t>MP1</t>
   </si>
@@ -140,28 +140,37 @@
     <t>Mater.</t>
   </si>
   <si>
-    <t>fräs</t>
-  </si>
-  <si>
-    <t>polier</t>
-  </si>
-  <si>
     <t>verz</t>
   </si>
   <si>
     <t>orient</t>
   </si>
   <si>
-    <t>auss</t>
+    <t>MittVerz</t>
   </si>
   <si>
-    <t>aus</t>
+    <t>a</t>
   </si>
   <si>
-    <t>in</t>
+    <t>i</t>
   </si>
   <si>
-    <t>MittVerz</t>
+    <t>kein</t>
+  </si>
+  <si>
+    <t>elx</t>
+  </si>
+  <si>
+    <t>durapro</t>
+  </si>
+  <si>
+    <t>standger</t>
+  </si>
+  <si>
+    <t>Standger.</t>
+  </si>
+  <si>
+    <t>DURApro</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +213,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +239,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -234,6 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1102,11 +1148,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59628160"/>
-        <c:axId val="59634432"/>
+        <c:axId val="59076608"/>
+        <c:axId val="59078528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59628160"/>
+        <c:axId val="59076608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1181,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.3961082212334664"/>
+              <c:x val="0.39610822123346662"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1153,14 +1199,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59634432"/>
+        <c:crossAx val="59078528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59634432"/>
+        <c:axId val="59078528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1247,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59628160"/>
+        <c:crossAx val="59076608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1230,9 +1276,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692672076E-2"/>
-          <c:w val="0.33985618354542618"/>
-          <c:h val="0.13085780830991775"/>
+          <c:y val="9.9227460692672173E-2"/>
+          <c:w val="0.33985618354542646"/>
+          <c:h val="0.13085780830991769"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1252,7 +1298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1262,16 +1308,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1294,8 +1340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:L27" totalsRowShown="0">
-  <autoFilter ref="B4:L27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:L28" totalsRowShown="0">
+  <autoFilter ref="B4:L28"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Spalte1"/>
     <tableColumn id="2" name="MP1"/>
@@ -1334,8 +1380,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="D5:N30" totalsRowShown="0">
-  <autoFilter ref="D5:N30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="D5:N31" totalsRowShown="0">
+  <autoFilter ref="D5:N31"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1354,8 +1400,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:N29" totalsRowShown="0">
-  <autoFilter ref="D4:N29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:N30" totalsRowShown="0">
+  <autoFilter ref="D4:N30"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1374,8 +1420,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N30" totalsRowShown="0">
-  <autoFilter ref="D5:N30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N31" totalsRowShown="0">
+  <autoFilter ref="D5:N31"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1656,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:L26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3316,6 +3362,41 @@
       </c>
       <c r="L27">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.372</v>
       </c>
     </row>
   </sheetData>
@@ -3330,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:N29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4292,6 +4373,41 @@
       </c>
       <c r="N30" s="6">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14">
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.22600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4305,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:N28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5261,6 +5377,41 @@
       </c>
       <c r="N29" s="5">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14">
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.193</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.34300000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5273,10 +5424,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:N29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6229,6 +6380,41 @@
       </c>
       <c r="N30" s="5">
         <v>4.17</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14">
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.111</v>
+      </c>
+      <c r="G31" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.124</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.47099999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6241,14 +6427,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:M12"/>
+  <dimension ref="B3:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="3" spans="2:13" ht="26.25">
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="4" spans="2:13">
       <c r="D4" t="s">
         <v>0</v>
@@ -6575,14 +6766,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:O25"/>
+  <dimension ref="D2:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2" spans="4:15" ht="23.25">
+      <c r="J2" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="5" spans="4:15">
       <c r="D5" t="s">
         <v>36</v>
@@ -6623,606 +6819,826 @@
     </row>
     <row r="6" spans="4:15">
       <c r="D6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="H6">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="I6">
-        <v>-7.3999999999999996E-2</v>
+        <v>-0.107</v>
       </c>
       <c r="J6">
-        <v>-0.23100000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K6">
-        <v>-0.27400000000000002</v>
+        <v>-0.29899999999999999</v>
       </c>
       <c r="L6">
-        <v>-0.23200000000000001</v>
+        <v>-0.252</v>
       </c>
       <c r="M6">
-        <v>-1.06</v>
+        <v>-1.01</v>
       </c>
       <c r="N6">
-        <v>-0.38</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="O6">
-        <v>-0.43</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="4:15">
       <c r="D7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>0.42</v>
+        <v>0.87</v>
       </c>
       <c r="G7">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>-0.08</v>
+        <v>-0.113</v>
       </c>
       <c r="J7">
         <v>-0.25700000000000001</v>
       </c>
       <c r="K7">
-        <v>-0.29299999999999998</v>
+        <v>-0.28699999999999998</v>
       </c>
       <c r="L7">
-        <v>-0.23300000000000001</v>
+        <v>-0.23799999999999999</v>
       </c>
       <c r="M7">
-        <v>-0.97</v>
+        <v>-0.91</v>
       </c>
       <c r="N7">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O7">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>0.28999999999999998</v>
+        <f>F7-F6</f>
+        <v>0.42</v>
       </c>
       <c r="G8">
-        <v>0.13</v>
+        <f>G7-G6</f>
+        <v>0.17999999999999994</v>
       </c>
       <c r="H8">
-        <v>6.9999999999999993E-2</v>
+        <f>0.02+0.06</f>
+        <v>0.08</v>
       </c>
       <c r="I8">
+        <f>0.113-0.107</f>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="J8">
-        <v>2.5999999999999995E-2</v>
+        <f>0.29-0.257</f>
+        <v>3.2999999999999974E-2</v>
       </c>
       <c r="K8">
-        <v>1.8999999999999961E-2</v>
+        <f>0.299-0.287</f>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="L8">
-        <v>1.0000000000000009E-3</v>
+        <f>0.252-0.238</f>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="M8">
-        <v>9.000000000000008E-2</v>
+        <f>1.01-0.91</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="N8">
-        <v>0.35</v>
+        <f>0.14-0.02</f>
+        <v>0.12000000000000001</v>
       </c>
       <c r="O8">
-        <v>0.61</v>
+        <f>O7-O6</f>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="4:15">
       <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="4:15">
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.15920000000000001</v>
+        <f>AVERAGE(F8:O8)</f>
+        <v>0.1295</v>
       </c>
     </row>
     <row r="11" spans="4:15">
       <c r="D11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="G11">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="H11">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>-0.10100000000000001</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J11">
-        <v>-0.34</v>
+        <v>-0.439</v>
       </c>
       <c r="K11">
-        <v>-0.39600000000000002</v>
+        <v>-0.48299999999999998</v>
       </c>
       <c r="L11">
-        <v>-0.251</v>
+        <v>-0.30299999999999999</v>
       </c>
       <c r="M11">
-        <v>-0.84</v>
+        <v>-0.72</v>
       </c>
       <c r="N11">
-        <v>-0.01</v>
+        <v>0.22</v>
       </c>
       <c r="O11">
-        <v>0.7</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="12" spans="4:15">
       <c r="D12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="H12">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I12">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="J12">
-        <v>-0.38500000000000001</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="K12">
-        <v>-0.45200000000000001</v>
+        <v>-0.48399999999999999</v>
       </c>
       <c r="L12">
-        <v>-0.26900000000000002</v>
+        <v>-0.314</v>
       </c>
       <c r="M12">
-        <v>-0.66</v>
+        <v>-0.64</v>
       </c>
       <c r="N12">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="O12">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="4:15">
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>0.39999999999999991</v>
+        <f>F12-F11</f>
+        <v>0.31999999999999984</v>
       </c>
       <c r="G13">
-        <v>0.52</v>
+        <f>G12-G11</f>
+        <v>0.12</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <f>H12-H11</f>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="I13">
-        <v>4.0000000000000036E-3</v>
+        <f>0.176-0.14</f>
+        <v>3.5999999999999976E-2</v>
       </c>
       <c r="J13">
-        <v>4.4999999999999984E-2</v>
+        <f>0.439-0.425</f>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="K13">
-        <v>5.5999999999999994E-2</v>
+        <f>0.484-0.483</f>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="L13">
-        <v>1.8000000000000016E-2</v>
+        <f>0.314-0.303</f>
+        <v>1.100000000000001E-2</v>
       </c>
       <c r="M13">
-        <v>0.17999999999999994</v>
+        <f>0.72-0.64</f>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="N13">
-        <v>0.23</v>
+        <f>0.34-0.22</f>
+        <v>0.12000000000000002</v>
       </c>
       <c r="O13">
-        <v>0.59000000000000008</v>
+        <f>1.5-1.24</f>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="4:15">
       <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="4:15">
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.21429999999999999</v>
+        <f>AVERAGE(F13:O13)</f>
+        <v>9.8199999999999982E-2</v>
       </c>
     </row>
     <row r="16" spans="4:15">
       <c r="D16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16">
-        <v>2.54</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G16">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H16">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="I16">
-        <v>-0.11600000000000001</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="J16">
-        <v>-0.439</v>
+        <v>-0.502</v>
       </c>
       <c r="K16">
-        <v>-0.48099999999999998</v>
+        <v>-0.51</v>
       </c>
       <c r="L16">
-        <v>-0.23400000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="M16">
-        <v>-0.56000000000000005</v>
+        <v>-0.47</v>
       </c>
       <c r="N16">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="O16">
-        <v>1.98</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="17" spans="4:15">
       <c r="D17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="G17">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="H17">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I17">
-        <v>-0.114</v>
+        <v>-0.19</v>
       </c>
       <c r="J17">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="K17">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="L17">
-        <v>-0.23</v>
+        <v>-0.16</v>
       </c>
       <c r="M17">
-        <v>-0.42</v>
+        <v>-0.34</v>
       </c>
       <c r="N17">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="O17">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="18" spans="4:15">
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>4.9999999999999822E-2</v>
+        <f>F17-F16</f>
+        <v>0.19000000000000039</v>
       </c>
       <c r="G18">
-        <v>4.9999999999999822E-2</v>
+        <f>G17-G16</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="H18">
+        <f>H16-H17</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I18">
+        <f>0.19-0.145</f>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="J18">
+        <f>0.502-0.44</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K18">
+        <f>0.51-0.43</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="L18">
+        <f>0.21-0.16</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="I18">
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="J18">
-        <v>1.9000000000000017E-2</v>
-      </c>
-      <c r="K18">
-        <v>4.0999999999999981E-2</v>
-      </c>
-      <c r="L18">
-        <v>4.0000000000000036E-3</v>
-      </c>
       <c r="M18">
-        <v>0.14000000000000007</v>
+        <f>0.47-0.34</f>
+        <v>0.12999999999999995</v>
       </c>
       <c r="N18">
-        <v>0.23999999999999994</v>
+        <f>N17-N16</f>
+        <v>0.12</v>
       </c>
       <c r="O18">
-        <v>0.48</v>
+        <f>O17-O16</f>
+        <v>0.18999999999999995</v>
       </c>
     </row>
     <row r="19" spans="4:15">
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="4:15">
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.10759999999999996</v>
+        <f>AVERAGE(F18:O18)</f>
+        <v>9.470000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="4:15">
       <c r="D21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21">
-        <v>4.33</v>
+        <v>4.43</v>
       </c>
       <c r="G21">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H21">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I21">
-        <v>-7.0999999999999994E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="J21">
-        <v>-0.37</v>
+        <v>-0.433</v>
       </c>
       <c r="K21">
-        <v>-0.35</v>
+        <v>-0.41</v>
       </c>
       <c r="L21">
-        <v>-0.151</v>
+        <v>-0.21099999999999999</v>
       </c>
       <c r="M21">
-        <v>-0.31</v>
+        <v>-0.36</v>
       </c>
       <c r="N21">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O21">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="22" spans="4:15">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="G22">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="H22">
-        <v>0.35199999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="I22">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="J22">
-        <v>-0.3</v>
+        <v>-0.44</v>
       </c>
       <c r="K22">
-        <v>-0.26</v>
+        <v>-0.41</v>
       </c>
       <c r="L22">
-        <v>-0.01</v>
+        <v>-0.24</v>
       </c>
       <c r="M22">
-        <v>-0.2</v>
+        <v>-0.32</v>
       </c>
       <c r="N22">
-        <v>1.21</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O22">
-        <v>3.65</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="23" spans="4:15">
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23">
-        <v>0.89000000000000012</v>
+        <f>F22-F21</f>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="G23">
-        <v>0.14999999999999991</v>
+        <f>G21-G22</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="H23">
-        <v>9.8000000000000032E-2</v>
+        <f>H21-H22</f>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="I23">
-        <v>4.9999999999999906E-3</v>
+        <f>0.196-0.132</f>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J23">
-        <v>7.0000000000000007E-2</v>
+        <f>0.44-0.433</f>
+        <v>7.0000000000000062E-3</v>
       </c>
       <c r="K23">
-        <v>8.9999999999999969E-2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.14099999999999999</v>
+        <f>0.24-0.211</f>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="M23">
-        <v>0.10999999999999999</v>
+        <f>0.36-0.32</f>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="N23">
-        <v>0.12999999999999989</v>
+        <f>1.16-1.1</f>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="O23">
-        <v>0.10999999999999988</v>
+        <f>4.17-4.01</f>
+        <v>0.16000000000000014</v>
       </c>
     </row>
     <row r="24" spans="4:15">
       <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
         <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="4:15">
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.17939999999999995</v>
+        <f>AVERAGE(F23:O23)</f>
+        <v>5.1300000000000033E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" ht="23.25">
+      <c r="H28" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J31" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.318</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15">
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I32" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.193</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.222</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.185</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.111</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.47099999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>MP1</t>
   </si>
@@ -1148,11 +1148,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59076608"/>
-        <c:axId val="59078528"/>
+        <c:axId val="61725312"/>
+        <c:axId val="62784256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59076608"/>
+        <c:axId val="61725312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39610822123346662"/>
+              <c:x val="0.39610822123346673"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1199,14 +1199,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59078528"/>
+        <c:crossAx val="62784256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59078528"/>
+        <c:axId val="62784256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1247,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59076608"/>
+        <c:crossAx val="61725312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1276,9 +1276,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692672173E-2"/>
-          <c:w val="0.33985618354542646"/>
-          <c:h val="0.13085780830991769"/>
+          <c:y val="9.9227460692672229E-2"/>
+          <c:w val="0.33985618354542657"/>
+          <c:h val="0.13085780830991767"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1298,8 +1298,1525 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$96:$M$96</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.34791629975324084</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.3015168623819458</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1788351926881028</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1622776601683777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8657317216818891E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5374260648651459E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9734589691327387E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16675291885814941</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.31766715017554714</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.36246297985408904</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$96:$M$96</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.34791629975324084</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.3015168623819458</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1788351926881028</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1622776601683777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8657317216818891E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5374260648651459E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9734589691327387E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16675291885814941</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.31766715017554714</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.36246297985408904</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$87:$M$87</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$88:$M$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87111111111111106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7022222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9444444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25722222222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2383333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.90777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$97:$M$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.31256620351366904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23686327390778794</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14230804245498013</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.663116303454135E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.1654214685122581E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.1031466041216972E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5003759196617301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14580448336186852</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20884330565232276</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22571290567770635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$97:$M$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.31256620351366904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23686327390778794</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14230804245498013</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.663116303454135E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.1654214685122581E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.1031466041216972E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5003759196617301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14580448336186852</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20884330565232276</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22571290567770635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$87:$M$87</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$89:$M$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.31399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5010000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$98:$M$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14516415390494672</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17347455448171917</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.20160605149647659</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.9847578415620934E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19313480429891194</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22203840350619294</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.29930577570174127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.28310310563653773</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.25563697533395813</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34332123978018891</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$98:$M$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14516415390494672</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17347455448171917</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.20160605149647659</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.9847578415620934E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19313480429891194</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22203840350619294</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.29930577570174127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.28310310563653773</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.25563697533395813</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34332123978018891</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$87:$M$87</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$90:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.721000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78850000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6580000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VergleichDURApro!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$99:$M$99</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.18470745005350522</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11113173785150353</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2247384218979927E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9566542195952655E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.7796115487741494E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12110347902343239</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12394714493219325</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.19991050629298041</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.34995638826032421</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.47144207658940995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VergleichDURApro!$D$99:$M$99</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.18470745005350522</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11113173785150353</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2247384218979927E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9566542195952655E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.7796115487741494E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12110347902343239</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12394714493219325</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.19991050629298041</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.34995638826032421</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.47144207658940995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VergleichDURApro!$D$87:$M$87</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VergleichDURApro!$D$91:$M$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.31800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.174500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="65308160"/>
+        <c:axId val="65309696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65308160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65309696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65309696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>x = ( ± s) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65308160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33394041653884171"/>
+          <c:y val="8.3392563609220316E-2"/>
+          <c:w val="0.38034529774687253"/>
+          <c:h val="0.19803327458810976"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'verzug und stanabw.'!$F$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2999999999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'verzug und stanabw.'!$F$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'verzug und stanabw.'!$F$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'verzug und stanabw.'!$F$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000284E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>5.9999999999999831E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="74333568"/>
+        <c:axId val="74355840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74333568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40472912160665736"/>
+              <c:y val="0.62747827506017706"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74355840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74355840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8840815816016906E-2"/>
+              <c:y val="5.9763334667912289E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74333568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37943543273277125"/>
+          <c:y val="8.1452466746741406E-2"/>
+          <c:w val="0.29444149611688375"/>
+          <c:h val="0.20432670492459629"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1318,6 +2835,71 @@
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1694,7 +3276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1704,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:L28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3413,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:N31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4424,7 +6006,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:N30"/>
+      <selection activeCell="E26" sqref="E26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5426,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:N31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6427,10 +8009,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M12"/>
+  <dimension ref="B3:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6756,6 +8338,318 @@
       </c>
       <c r="M12">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" t="s">
+        <v>8</v>
+      </c>
+      <c r="M87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>0.87111111111111106</v>
+      </c>
+      <c r="E88">
+        <v>0.7022222222222223</v>
+      </c>
+      <c r="F88">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="G88">
+        <v>-0.11333333333333334</v>
+      </c>
+      <c r="H88">
+        <v>-0.25722222222222224</v>
+      </c>
+      <c r="I88">
+        <v>-0.28666666666666668</v>
+      </c>
+      <c r="J88">
+        <v>-0.2383333333333334</v>
+      </c>
+      <c r="K88">
+        <v>-0.90777777777777779</v>
+      </c>
+      <c r="L88">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="M88">
+        <v>0.44833333333333336</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89">
+        <v>1.8984999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F89">
+        <v>0.12099999999999997</v>
+      </c>
+      <c r="G89">
+        <v>-0.17550000000000004</v>
+      </c>
+      <c r="H89">
+        <v>-0.4245000000000001</v>
+      </c>
+      <c r="I89">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="J89">
+        <v>-0.31399999999999995</v>
+      </c>
+      <c r="K89">
+        <v>-0.63799999999999979</v>
+      </c>
+      <c r="L89">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="M89">
+        <v>1.5010000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13">
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>2.721000000000001</v>
+      </c>
+      <c r="E90">
+        <v>1.1675</v>
+      </c>
+      <c r="F90">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="G90">
+        <v>-0.1905</v>
+      </c>
+      <c r="H90">
+        <v>-0.438</v>
+      </c>
+      <c r="I90">
+        <v>-0.42800000000000005</v>
+      </c>
+      <c r="J90">
+        <v>-0.16449999999999995</v>
+      </c>
+      <c r="K90">
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="L90">
+        <v>0.78850000000000009</v>
+      </c>
+      <c r="M90">
+        <v>2.6580000000000008</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91">
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="E91">
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.34699999999999992</v>
+      </c>
+      <c r="G91">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="H91">
+        <v>-0.4415</v>
+      </c>
+      <c r="I91">
+        <v>-0.41349999999999998</v>
+      </c>
+      <c r="J91">
+        <v>-0.23549999999999999</v>
+      </c>
+      <c r="K91">
+        <v>-0.31800000000000006</v>
+      </c>
+      <c r="L91">
+        <v>1.1619999999999997</v>
+      </c>
+      <c r="M91">
+        <v>4.174500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13">
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>0.34791629975324084</v>
+      </c>
+      <c r="E96">
+        <v>0.3015168623819458</v>
+      </c>
+      <c r="F96">
+        <v>0.1788351926881028</v>
+      </c>
+      <c r="G96">
+        <v>3.1622776601683777E-2</v>
+      </c>
+      <c r="H96">
+        <v>2.8657317216818891E-2</v>
+      </c>
+      <c r="I96">
+        <v>4.5374260648651459E-2</v>
+      </c>
+      <c r="J96">
+        <v>4.9734589691327387E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.16675291885814941</v>
+      </c>
+      <c r="L96">
+        <v>0.31766715017554714</v>
+      </c>
+      <c r="M96">
+        <v>0.36246297985408904</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13">
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97">
+        <v>0.31256620351366904</v>
+      </c>
+      <c r="E97">
+        <v>0.23686327390778794</v>
+      </c>
+      <c r="F97">
+        <v>0.14230804245498013</v>
+      </c>
+      <c r="G97">
+        <v>3.663116303454135E-2</v>
+      </c>
+      <c r="H97">
+        <v>5.1654214685122581E-2</v>
+      </c>
+      <c r="I97">
+        <v>5.1031466041216972E-2</v>
+      </c>
+      <c r="J97">
+        <v>3.5003759196617301E-2</v>
+      </c>
+      <c r="K97">
+        <v>0.14580448336186852</v>
+      </c>
+      <c r="L97">
+        <v>0.20884330565232276</v>
+      </c>
+      <c r="M97">
+        <v>0.22571290567770635</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13">
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98">
+        <v>0.14516415390494672</v>
+      </c>
+      <c r="E98">
+        <v>0.17347455448171917</v>
+      </c>
+      <c r="F98">
+        <v>0.20160605149647659</v>
+      </c>
+      <c r="G98">
+        <v>6.9847578415620934E-2</v>
+      </c>
+      <c r="H98">
+        <v>0.19313480429891194</v>
+      </c>
+      <c r="I98">
+        <v>0.22203840350619294</v>
+      </c>
+      <c r="J98">
+        <v>0.29930577570174127</v>
+      </c>
+      <c r="K98">
+        <v>0.28310310563653773</v>
+      </c>
+      <c r="L98">
+        <v>0.25563697533395813</v>
+      </c>
+      <c r="M98">
+        <v>0.34332123978018891</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99">
+        <v>0.18470745005350522</v>
+      </c>
+      <c r="E99">
+        <v>0.11113173785150353</v>
+      </c>
+      <c r="F99">
+        <v>6.2247384218979927E-2</v>
+      </c>
+      <c r="G99">
+        <v>4.9566542195952655E-2</v>
+      </c>
+      <c r="H99">
+        <v>8.7796115487741494E-2</v>
+      </c>
+      <c r="I99">
+        <v>0.12110347902343239</v>
+      </c>
+      <c r="J99">
+        <v>0.12394714493219325</v>
+      </c>
+      <c r="K99">
+        <v>0.19991050629298041</v>
+      </c>
+      <c r="L99">
+        <v>0.34995638826032421</v>
+      </c>
+      <c r="M99">
+        <v>0.47144207658940995</v>
       </c>
     </row>
   </sheetData>
@@ -6768,8 +8662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:O34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7470,178 +9364,179 @@
       </c>
     </row>
     <row r="30" spans="4:15">
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>5</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>6</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>7</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>8</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="4:15">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="8">
-        <v>0.34799999999999998</v>
-      </c>
       <c r="F31" s="8">
-        <v>0.30199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G31" s="8">
-        <v>0.17899999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="H31" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I31" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>-6.0000000000000097E-3</v>
       </c>
       <c r="J31" s="8">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0.16700000000000001</v>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="L31" s="9">
+        <v>-1.4E-2</v>
       </c>
       <c r="M31" s="8">
-        <v>0.318</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0.372</v>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.33</v>
       </c>
     </row>
     <row r="32" spans="4:15">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8">
-        <v>0.313</v>
-      </c>
       <c r="F32" s="8">
-        <v>0.23699999999999999</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="G32" s="8">
-        <v>0.14199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H32" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="I32" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="J32" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="K32" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="L32" s="8">
-        <v>0.14599999999999999</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="M32" s="8">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14">
-      <c r="D33" t="s">
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15">
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="8">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="F33" s="8">
-        <v>0.17299999999999999</v>
+        <v>0.19000000000000039</v>
       </c>
       <c r="G33" s="8">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="H33" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0.193</v>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="J33" s="8">
-        <v>0.222</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.28299999999999997</v>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="L33" s="9">
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="M33" s="8">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14">
-      <c r="D34" t="s">
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15">
+      <c r="E34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="8">
-        <v>0.185</v>
-      </c>
       <c r="F34" s="8">
-        <v>0.111</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="G34" s="8">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="I34" s="8">
-        <v>8.7999999999999995E-2</v>
+        <v>-0.03</v>
+      </c>
+      <c r="H34" s="8">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="J34" s="8">
-        <v>0.121</v>
+        <v>-7.0000000000000097E-3</v>
       </c>
       <c r="K34" s="8">
-        <v>0.124</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="M34" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0.47099999999999997</v>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="N34" s="9">
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.16000000000000014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F13DURApro" sheetId="1" r:id="rId1"/>
@@ -1148,11 +1148,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61725312"/>
-        <c:axId val="62784256"/>
+        <c:axId val="57662080"/>
+        <c:axId val="57672448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61725312"/>
+        <c:axId val="57662080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39610822123346673"/>
+              <c:x val="0.39610822123346701"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1199,14 +1199,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62784256"/>
+        <c:crossAx val="57672448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62784256"/>
+        <c:axId val="57672448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1231,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1247,7 +1246,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61725312"/>
+        <c:crossAx val="57662080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1276,8 +1275,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692672229E-2"/>
-          <c:w val="0.33985618354542657"/>
+          <c:y val="9.9227460692672326E-2"/>
+          <c:w val="0.33985618354542679"/>
           <c:h val="0.13085780830991767"/>
         </c:manualLayout>
       </c:layout>
@@ -2101,11 +2100,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65308160"/>
-        <c:axId val="65309696"/>
+        <c:axId val="58140544"/>
+        <c:axId val="58155008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65308160"/>
+        <c:axId val="58140544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2145,14 +2143,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65309696"/>
+        <c:crossAx val="58155008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65309696"/>
+        <c:axId val="58155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2193,7 +2190,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65308160"/>
+        <c:crossAx val="58140544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2205,9 +2202,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33394041653884171"/>
-          <c:y val="8.3392563609220316E-2"/>
-          <c:w val="0.38034529774687253"/>
+          <c:x val="0.33394041653884188"/>
+          <c:y val="8.3392563609220358E-2"/>
+          <c:w val="0.38034529774687276"/>
           <c:h val="0.19803327458810976"/>
         </c:manualLayout>
       </c:layout>
@@ -2228,7 +2225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2667,11 +2664,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74333568"/>
-        <c:axId val="74355840"/>
+        <c:axId val="58193792"/>
+        <c:axId val="58798464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74333568"/>
+        <c:axId val="58193792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,8 +2699,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40472912160665736"/>
-              <c:y val="0.62747827506017706"/>
+              <c:x val="0.42155353725402406"/>
+              <c:y val="0.56815627919391432"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2721,14 +2718,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74355840"/>
+        <c:crossAx val="58798464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74355840"/>
+        <c:axId val="58798464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2747,7 @@
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
+                  <a:t>Offsetwerte [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2759,8 +2756,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.8840815816016906E-2"/>
-              <c:y val="5.9763334667912289E-2"/>
+              <c:x val="3.5149898548581512E-2"/>
+              <c:y val="7.3887628453223025E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2779,7 +2776,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74333568"/>
+        <c:crossAx val="58193792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2791,10 +2788,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37943543273277125"/>
-          <c:y val="8.1452466746741406E-2"/>
-          <c:w val="0.29444149611688375"/>
-          <c:h val="0.20432670492459629"/>
+          <c:x val="0.34158054239125951"/>
+          <c:y val="1.0830997820187732E-2"/>
+          <c:w val="0.39118169996245977"/>
+          <c:h val="0.20432670492459623"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2803,7 +2800,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="1" i="1">
-              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
               <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -2815,7 +2812,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8011,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
@@ -8662,8 +8659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -1148,11 +1148,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57662080"/>
-        <c:axId val="57672448"/>
+        <c:axId val="62970496"/>
+        <c:axId val="63505152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57662080"/>
+        <c:axId val="62970496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39610822123346701"/>
+              <c:x val="0.39610822123346723"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1199,14 +1199,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57672448"/>
+        <c:crossAx val="63505152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57672448"/>
+        <c:axId val="63505152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1246,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57662080"/>
+        <c:crossAx val="62970496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1275,8 +1275,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692672326E-2"/>
-          <c:w val="0.33985618354542679"/>
+          <c:y val="9.9227460692672409E-2"/>
+          <c:w val="0.33985618354542707"/>
           <c:h val="0.13085780830991767"/>
         </c:manualLayout>
       </c:layout>
@@ -2100,11 +2100,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58140544"/>
-        <c:axId val="58155008"/>
+        <c:axId val="63580032"/>
+        <c:axId val="63594496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58140544"/>
+        <c:axId val="63580032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,6 +2129,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42560350410744113"/>
+              <c:y val="0.83021207564660171"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2143,14 +2151,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58155008"/>
+        <c:crossAx val="63594496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58155008"/>
+        <c:axId val="63594496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,6 +2183,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2190,7 +2199,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58140544"/>
+        <c:crossAx val="63580032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2202,9 +2211,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33394041653884188"/>
-          <c:y val="8.3392563609220358E-2"/>
-          <c:w val="0.38034529774687276"/>
+          <c:x val="0.33394041653884204"/>
+          <c:y val="8.3392563609220385E-2"/>
+          <c:w val="0.38034529774687292"/>
           <c:h val="0.19803327458810976"/>
         </c:manualLayout>
       </c:layout>
@@ -2213,7 +2222,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200">
+            <a:defRPr sz="1200" b="1" i="1">
               <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -2225,7 +2234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2664,11 +2673,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58193792"/>
-        <c:axId val="58798464"/>
+        <c:axId val="75958144"/>
+        <c:axId val="75968896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58193792"/>
+        <c:axId val="75958144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2708,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42155353725402406"/>
+              <c:x val="0.42155353725402417"/>
               <c:y val="0.56815627919391432"/>
             </c:manualLayout>
           </c:layout>
@@ -2718,14 +2727,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58798464"/>
+        <c:crossAx val="75968896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58798464"/>
+        <c:axId val="75968896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2756,21 @@
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte [mm]</a:t>
+                  <a:t>Verzug</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>[mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2756,8 +2779,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5149898548581512E-2"/>
-              <c:y val="7.3887628453223025E-2"/>
+              <c:x val="3.9355996695397848E-2"/>
+              <c:y val="0.13320966235152812"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2776,7 +2799,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58193792"/>
+        <c:crossAx val="75958144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2788,10 +2811,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34158054239125951"/>
+          <c:x val="0.34158054239125962"/>
           <c:y val="1.0830997820187732E-2"/>
-          <c:w val="0.39118169996245977"/>
-          <c:h val="0.20432670492459623"/>
+          <c:w val="0.39118169996246011"/>
+          <c:h val="0.20432670492459618"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2812,7 +2835,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3283,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24:L24"/>
     </sheetView>
   </sheetViews>
@@ -7005,7 +7028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
@@ -8009,7 +8032,7 @@
   <dimension ref="B3:M99"/>
   <sheetViews>
     <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+      <selection activeCell="R127" sqref="R127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8659,8 +8682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/vdkdDURApro.xlsx
+++ b/vdkdDURApro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13DURApro" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="F17DURApro" sheetId="3" r:id="rId3"/>
     <sheet name="F18DURApro" sheetId="4" r:id="rId4"/>
     <sheet name="VergleichDURApro" sheetId="5" r:id="rId5"/>
-    <sheet name="verzug und stanabw." sheetId="6" r:id="rId6"/>
+    <sheet name="Verzug" sheetId="6" r:id="rId6"/>
+    <sheet name="DiffVerzugStandardab." sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
   <si>
     <t>MP1</t>
   </si>
@@ -171,6 +172,27 @@
   </si>
   <si>
     <t>DURApro</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sger</t>
+  </si>
+  <si>
+    <t>sdurapro</t>
+  </si>
+  <si>
+    <t>selox</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1170,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62970496"/>
-        <c:axId val="63505152"/>
+        <c:axId val="57812864"/>
+        <c:axId val="57825536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62970496"/>
+        <c:axId val="57812864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1203,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39610822123346723"/>
+              <c:x val="0.39610822123346762"/>
               <c:y val="0.86756211782889414"/>
             </c:manualLayout>
           </c:layout>
@@ -1199,14 +1221,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63505152"/>
+        <c:crossAx val="57825536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63505152"/>
+        <c:axId val="57825536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1268,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62970496"/>
+        <c:crossAx val="57812864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1275,8 +1297,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.30525561693129272"/>
-          <c:y val="9.9227460692672409E-2"/>
-          <c:w val="0.33985618354542707"/>
+          <c:y val="9.9227460692672562E-2"/>
+          <c:w val="0.33985618354542746"/>
           <c:h val="0.13085780830991767"/>
         </c:manualLayout>
       </c:layout>
@@ -2100,11 +2122,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63580032"/>
-        <c:axId val="63594496"/>
+        <c:axId val="62969728"/>
+        <c:axId val="74067968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63580032"/>
+        <c:axId val="62969728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,8 +2155,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42560350410744113"/>
-              <c:y val="0.83021207564660171"/>
+              <c:x val="0.42560350410744141"/>
+              <c:y val="0.83021207564660149"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2151,14 +2173,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63594496"/>
+        <c:crossAx val="74067968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63594496"/>
+        <c:axId val="74067968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2199,7 +2220,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63580032"/>
+        <c:crossAx val="62969728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2211,9 +2232,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33394041653884204"/>
-          <c:y val="8.3392563609220385E-2"/>
-          <c:w val="0.38034529774687292"/>
+          <c:x val="0.33394041653884238"/>
+          <c:y val="8.3392563609220441E-2"/>
+          <c:w val="0.38034529774687315"/>
           <c:h val="0.19803327458810976"/>
         </c:manualLayout>
       </c:layout>
@@ -2234,7 +2255,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2253,7 +2274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$E$31</c:f>
+              <c:f>Verzug!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2278,7 +2299,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:f>Verzug!$F$30:$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2316,7 +2337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'verzug und stanabw.'!$F$31:$O$31</c:f>
+              <c:f>Verzug!$F$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2359,7 +2380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$E$32</c:f>
+              <c:f>Verzug!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2384,7 +2405,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:f>Verzug!$F$30:$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2422,7 +2443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'verzug und stanabw.'!$F$32:$O$32</c:f>
+              <c:f>Verzug!$F$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2465,7 +2486,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$E$33</c:f>
+              <c:f>Verzug!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2490,7 +2511,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:f>Verzug!$F$30:$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2528,7 +2549,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'verzug und stanabw.'!$F$33:$O$33</c:f>
+              <c:f>Verzug!$F$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2571,7 +2592,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$E$34</c:f>
+              <c:f>Verzug!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,7 +2617,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'verzug und stanabw.'!$F$30:$O$30</c:f>
+              <c:f>Verzug!$F$30:$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2634,7 +2655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'verzug und stanabw.'!$F$34:$O$34</c:f>
+              <c:f>Verzug!$F$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2673,11 +2694,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75958144"/>
-        <c:axId val="75968896"/>
+        <c:axId val="93149824"/>
+        <c:axId val="93173248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75958144"/>
+        <c:axId val="93149824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2729,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42155353725402417"/>
+              <c:x val="0.42155353725402434"/>
               <c:y val="0.56815627919391432"/>
             </c:manualLayout>
           </c:layout>
@@ -2727,14 +2748,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75968896"/>
+        <c:crossAx val="93173248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75968896"/>
+        <c:axId val="93173248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +2801,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.9355996695397848E-2"/>
-              <c:y val="0.13320966235152812"/>
+              <c:y val="0.1332096623515282"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2799,7 +2820,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75958144"/>
+        <c:crossAx val="93149824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2811,9 +2832,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34158054239125962"/>
+          <c:x val="0.34158054239125984"/>
           <c:y val="1.0830997820187732E-2"/>
-          <c:w val="0.39118169996246011"/>
+          <c:w val="0.39118169996246061"/>
           <c:h val="0.20432670492459618"/>
         </c:manualLayout>
       </c:layout>
@@ -2835,7 +2856,958 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$113:$M$113</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4000000000000012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.9999999999999793E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.0000000000000062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.5000000000000022E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.9000000000000015E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$117:$M$117</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.2000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2999999999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$114:$M$114</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.1000000000000008E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8999999999999989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9999999999999957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2999999999999993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$118:$M$118</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6000000000000014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0000000000000018E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$115:$M$115</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5000000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13200000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13700000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1999999999999955E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$119:$M$119</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6999999999999968E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$116:$M$116</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6.0000000000000053E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.6000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5000000000000012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.4999999999999993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.8999999999999997E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$120:$M$120</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2999999999999987E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8000000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000284E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>5.9999999999999831E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="56935936"/>
+        <c:axId val="56937856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41945048818061592"/>
+              <c:y val="0.72069865207527084"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56937856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56937856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Materialverzug ± ∆s [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.725294762198969E-2"/>
+              <c:y val="0.11908536856621738"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56935936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30582870814332075"/>
+          <c:y val="0.18314738200097874"/>
+          <c:w val="0.39118169996246094"/>
+          <c:h val="0.20432670492459618"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2875,16 +3847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2941,11 +3913,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:L28" totalsRowShown="0">
   <autoFilter ref="B4:L28"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
     <tableColumn id="3" name="MP2"/>
     <tableColumn id="4" name="MP3"/>
@@ -3296,7 +4303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3307,7 +4314,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:L24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3331,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -6025,7 +7032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26:N26"/>
     </sheetView>
   </sheetViews>
@@ -7028,7 +8035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
@@ -8029,10 +9036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M99"/>
+  <dimension ref="B3:M103"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R127" sqref="R127"/>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8360,7 +9367,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="87" spans="3:13">
+    <row r="87" spans="2:13">
       <c r="D87" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +9399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="3:13">
+    <row r="88" spans="2:13">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +9434,7 @@
         <v>0.44833333333333336</v>
       </c>
     </row>
-    <row r="89" spans="3:13">
+    <row r="89" spans="2:13">
       <c r="C89" t="s">
         <v>31</v>
       </c>
@@ -8462,7 +9469,7 @@
         <v>1.5010000000000001</v>
       </c>
     </row>
-    <row r="90" spans="3:13">
+    <row r="90" spans="2:13">
       <c r="C90" t="s">
         <v>32</v>
       </c>
@@ -8497,7 +9504,7 @@
         <v>2.6580000000000008</v>
       </c>
     </row>
-    <row r="91" spans="3:13">
+    <row r="91" spans="2:13">
       <c r="C91" t="s">
         <v>33</v>
       </c>
@@ -8532,7 +9539,10 @@
         <v>4.174500000000001</v>
       </c>
     </row>
-    <row r="96" spans="3:13">
+    <row r="96" spans="2:13">
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
       <c r="C96" t="s">
         <v>30</v>
       </c>
@@ -8567,7 +9577,7 @@
         <v>0.36246297985408904</v>
       </c>
     </row>
-    <row r="97" spans="3:13">
+    <row r="97" spans="2:13">
       <c r="C97" t="s">
         <v>31</v>
       </c>
@@ -8602,7 +9612,7 @@
         <v>0.22571290567770635</v>
       </c>
     </row>
-    <row r="98" spans="3:13">
+    <row r="98" spans="2:13">
       <c r="C98" t="s">
         <v>32</v>
       </c>
@@ -8637,7 +9647,7 @@
         <v>0.34332123978018891</v>
       </c>
     </row>
-    <row r="99" spans="3:13">
+    <row r="99" spans="2:13">
       <c r="C99" t="s">
         <v>33</v>
       </c>
@@ -8670,6 +9680,189 @@
       </c>
       <c r="M99">
         <v>0.47144207658940995</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <f>ROUND(D96,3)</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ref="E100:M100" si="0">ROUND(E96,3)</f>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="0"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="0"/>
+        <v>0.318</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="0"/>
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101:M103" si="1">ROUND(D97,3)</f>
+        <v>0.313</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>0.193</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>0.222</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="1"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0.185</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>0.111</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>0.121</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>0.47099999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -8682,8 +9875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9559,4 +10752,855 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B101:M120"/>
+  <sheetViews>
+    <sheetView topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="101" spans="2:13">
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E101">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F101">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G101">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.111</v>
+      </c>
+      <c r="I101">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J101">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K101">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M101">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F102">
+        <v>0.123</v>
+      </c>
+      <c r="G102">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H102">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I102">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J102">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.123</v>
+      </c>
+      <c r="L102">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M102">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>0.155</v>
+      </c>
+      <c r="E103">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.2</v>
+      </c>
+      <c r="G103">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H103">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I103">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J103">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K103">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L103">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M103">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E104">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F104">
+        <v>0.1</v>
+      </c>
+      <c r="G104">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H104">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I104">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J104">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K104">
+        <v>0.155</v>
+      </c>
+      <c r="L104">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="M104">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E105">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G105">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H105">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I105">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.05</v>
+      </c>
+      <c r="K105">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L105">
+        <v>0.318</v>
+      </c>
+      <c r="M105">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106">
+        <v>0.313</v>
+      </c>
+      <c r="E106">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F106">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G106">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H106">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I106">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J106">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K106">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L106">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M106">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E107">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G107">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H107">
+        <v>0.193</v>
+      </c>
+      <c r="I107">
+        <v>0.222</v>
+      </c>
+      <c r="J107">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K107">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L107">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="M107">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108">
+        <v>0.185</v>
+      </c>
+      <c r="E108">
+        <v>0.111</v>
+      </c>
+      <c r="F108">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G108">
+        <v>0.05</v>
+      </c>
+      <c r="H108">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I108">
+        <v>0.121</v>
+      </c>
+      <c r="J108">
+        <v>0.124</v>
+      </c>
+      <c r="K108">
+        <v>0.2</v>
+      </c>
+      <c r="L108">
+        <v>0.35</v>
+      </c>
+      <c r="M108">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <f>D105-D101</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ref="E109:M109" si="0">E105-E101</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999793E-3</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="0"/>
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ref="D110:M112" si="1">D106-D102</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999989E-2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999957E-3</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000036E-3</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>-1.6000000000000014E-2</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000006E-2</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999955E-2</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>-2.6999999999999968E-2</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-6.2999999999999987E-2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>-3.8000000000000006E-2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999992E-2</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <f>IF(D109&gt;0,D109,0)</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ref="E113:M113" si="2">IF(E109&gt;0,E109,0)</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999793E-3</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="2"/>
+        <v>7.9000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ref="D114:M116" si="3">IF(D110&gt;0,D110,0)</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>1.8999999999999989E-2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999957E-3</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000036E-3</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000006E-2</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="3"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999955E-2</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999992E-2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="3"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="3"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <f>IF(D109&lt;0,ABS(D109),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ref="E117:M117" si="4">IF(E109&lt;0,ABS(E109),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="4"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="C118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:M120" si="5">IF(D110&lt;0,ABS(D110),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="5"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="5"/>
+        <v>2.6999999999999968E-2</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>6.2999999999999987E-2</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>